--- a/a-ledger.xlsx
+++ b/a-ledger.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
   <si>
     <t>日期</t>
   </si>
@@ -115,9 +115,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -138,6 +152,105 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -145,119 +258,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -268,187 +268,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,11 +462,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -475,7 +481,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -491,6 +497,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -524,38 +554,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -564,152 +564,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -721,9 +721,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1062,237 +1059,237 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="8.8" style="6"/>
-    <col min="2" max="2" width="68.6" style="6" customWidth="1"/>
-    <col min="3" max="3" width="60.5" style="6" customWidth="1"/>
-    <col min="4" max="16384" width="8.8" style="6"/>
+    <col min="1" max="1" width="8.8" style="5"/>
+    <col min="2" max="2" width="68.6" style="5" customWidth="1"/>
+    <col min="3" max="3" width="60.5" style="5" customWidth="1"/>
+    <col min="4" max="16384" width="8.8" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="7">
+      <c r="A2" s="6">
         <v>44637</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="7">
+      <c r="A3" s="6">
         <v>44638</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8" t="s">
+      <c r="A4" s="6"/>
+      <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" ht="31.5" spans="1:3">
-      <c r="A5" s="7">
+      <c r="A5" s="6">
         <v>44639</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" ht="47.25" spans="1:3">
-      <c r="A6" s="7">
+      <c r="A6" s="6">
         <v>44640</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="7">
+      <c r="A7" s="6">
         <v>44641</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="7">
+      <c r="A8" s="6">
         <v>44642</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="7">
+      <c r="A9" s="6">
         <v>44643</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="7">
+      <c r="A10" s="6">
         <v>44644</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="7">
+      <c r="A11" s="6">
         <v>44645</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="7">
+      <c r="A12" s="6">
         <v>44646</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="13" ht="63" spans="1:4">
-      <c r="A13" s="7">
+      <c r="A13" s="6">
         <v>44647</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="7">
+      <c r="A14" s="6">
         <v>44648</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="9"/>
+      <c r="C14" s="8"/>
     </row>
     <row r="15" ht="47.25" spans="1:3">
-      <c r="A15" s="7">
+      <c r="A15" s="6">
         <v>44649</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="16" ht="31.5" spans="1:3">
-      <c r="A16" s="7">
+      <c r="A16" s="6">
         <v>44650</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="7">
+      <c r="A17" s="6">
         <v>44651</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="7"/>
+      <c r="A18" s="6"/>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="7"/>
+      <c r="A19" s="6"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="7"/>
+      <c r="A20" s="6"/>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="7"/>
+      <c r="A21" s="6"/>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="7"/>
+      <c r="A22" s="6"/>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="7"/>
+      <c r="A23" s="6"/>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="7"/>
+      <c r="A24" s="6"/>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="7"/>
+      <c r="A25" s="6"/>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="7"/>
+      <c r="A26" s="6"/>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="7"/>
+      <c r="A27" s="6"/>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="7"/>
+      <c r="A28" s="6"/>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="7"/>
+      <c r="A29" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1309,7 +1306,7 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="2"/>
@@ -1329,23 +1326,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" ht="47.25" spans="1:3">
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>44652</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" ht="47.25" spans="1:3">
       <c r="A3" s="2">
         <v>44653</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
+      <c r="B3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2">
@@ -1449,99 +1447,99 @@
       <c r="A18" s="2">
         <v>44668</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2">
         <v>44669</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2">
         <v>44670</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2">
         <v>44671</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2">
         <v>44672</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2">
         <v>44673</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2">
         <v>44674</v>
       </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2">
         <v>44675</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2">
         <v>44676</v>
       </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2">
         <v>44677</v>
       </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2">
         <v>44678</v>
       </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2">
         <v>44679</v>
       </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2">
         <v>44680</v>
       </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2">
         <v>44681</v>
       </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="2"/>

--- a/a-ledger.xlsx
+++ b/a-ledger.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
   <si>
     <t>日期</t>
   </si>
@@ -93,6 +93,13 @@
   </si>
   <si>
     <t>1.代码格式化插件：black(https://black.readthedocs.io/en/stable/)</t>
+  </si>
+  <si>
+    <t>1.《watchlist-fastapi》p4
+2.《数据库系统基础教程》p14-p17</t>
+  </si>
+  <si>
+    <t>1.tortoise orm: https://tortoise.github.io/</t>
   </si>
 </sst>
 </file>
@@ -100,11 +107,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="m/d;@"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="m/d;@"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -115,6 +122,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -124,14 +155,80 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -145,107 +242,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -258,6 +257,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -268,37 +275,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -310,133 +443,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,17 +469,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -481,7 +482,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -536,6 +537,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -550,162 +566,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -716,7 +723,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -728,7 +735,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1306,7 +1313,7 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="2"/>
@@ -1345,12 +1352,16 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" ht="31.5" spans="1:3">
       <c r="A4" s="2">
         <v>44654</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
+      <c r="B4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2">

--- a/a-ledger.xlsx
+++ b/a-ledger.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t>日期</t>
   </si>
@@ -88,6 +88,9 @@
     <t>问题：vncserver启动后使用 sudo netstat -tnlp 找不到端口号？</t>
   </si>
   <si>
+    <t>周</t>
+  </si>
+  <si>
     <t>1.学习FastAPI官方文档——完成“Custom Response - HTML, Stream, File, others”至“Advanced Dependencies”。
 2.完成《watchlist-fastapi》p3</t>
   </si>
@@ -100,6 +103,10 @@
   </si>
   <si>
     <t>1.tortoise orm: https://tortoise.github.io/</t>
+  </si>
+  <si>
+    <t>1.学习FastAPI官方文档——完成“Advanced Security”至“Using Dataclasses”。
+2.《数据库系统基础教程》p18-p22:共计 5 页。</t>
   </si>
 </sst>
 </file>
@@ -107,11 +114,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="m/d;@"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="m/d;@"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -131,10 +138,78 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -146,44 +221,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -192,13 +239,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,9 +252,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -228,45 +267,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -275,43 +282,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -323,73 +426,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -401,61 +462,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,11 +482,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -482,7 +501,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -504,9 +523,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -528,26 +549,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -566,147 +570,156 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -716,14 +729,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -735,7 +751,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1071,232 +1087,232 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="8.8" style="5"/>
-    <col min="2" max="2" width="68.6" style="5" customWidth="1"/>
-    <col min="3" max="3" width="60.5" style="5" customWidth="1"/>
-    <col min="4" max="16384" width="8.8" style="5"/>
+    <col min="1" max="1" width="8.8" style="6"/>
+    <col min="2" max="2" width="68.6" style="6" customWidth="1"/>
+    <col min="3" max="3" width="60.5" style="6" customWidth="1"/>
+    <col min="4" max="16384" width="8.8" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="6">
+      <c r="A2" s="7">
         <v>44637</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="6">
+      <c r="A3" s="7">
         <v>44638</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7" t="s">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" ht="31.5" spans="1:3">
-      <c r="A5" s="6">
+      <c r="A5" s="7">
         <v>44639</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" ht="47.25" spans="1:3">
-      <c r="A6" s="6">
+      <c r="A6" s="7">
         <v>44640</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="6">
+      <c r="A7" s="7">
         <v>44641</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="6">
+      <c r="A8" s="7">
         <v>44642</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="6">
+      <c r="A9" s="7">
         <v>44643</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="6">
+      <c r="A10" s="7">
         <v>44644</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="6">
+      <c r="A11" s="7">
         <v>44645</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="9"/>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="6">
+      <c r="A12" s="7">
         <v>44646</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="13" ht="63" spans="1:4">
-      <c r="A13" s="6">
+      <c r="A13" s="7">
         <v>44647</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="6">
+      <c r="A14" s="7">
         <v>44648</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="8"/>
+      <c r="C14" s="9"/>
     </row>
     <row r="15" ht="47.25" spans="1:3">
-      <c r="A15" s="6">
+      <c r="A15" s="7">
         <v>44649</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="16" ht="31.5" spans="1:3">
-      <c r="A16" s="6">
+      <c r="A16" s="7">
         <v>44650</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="6">
+      <c r="A17" s="7">
         <v>44651</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="9" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="6"/>
+      <c r="A18" s="7"/>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="6"/>
+      <c r="A19" s="7"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="6"/>
+      <c r="A20" s="7"/>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="6"/>
+      <c r="A21" s="7"/>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="6"/>
+      <c r="A22" s="7"/>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="6"/>
+      <c r="A23" s="7"/>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="6"/>
+      <c r="A24" s="7"/>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="6"/>
+      <c r="A25" s="7"/>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="6"/>
+      <c r="A26" s="7"/>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="6"/>
+      <c r="A27" s="7"/>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="6"/>
+      <c r="A28" s="7"/>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="6"/>
+      <c r="A29" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1310,255 +1326,299 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="58.4" customWidth="1"/>
-    <col min="3" max="3" width="44.5" customWidth="1"/>
+    <col min="1" max="1" width="4.8" customWidth="1"/>
+    <col min="2" max="2" width="8.7" customWidth="1"/>
+    <col min="3" max="3" width="58.4" customWidth="1"/>
+    <col min="4" max="4" width="44.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" s="2">
+        <v>15</v>
+      </c>
+      <c r="B2" s="3">
         <v>44652</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" ht="47.25" spans="1:3">
-      <c r="A3" s="2">
+    <row r="3" ht="47.25" spans="1:4">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3">
         <v>44653</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" ht="31.5" spans="1:3">
-      <c r="A4" s="2">
+      <c r="D3" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" ht="31.5" spans="1:4">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3">
         <v>44654</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="2">
+      <c r="D4" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" ht="31.5" spans="1:4">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3">
         <v>44655</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="2">
+      <c r="C5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2"/>
+      <c r="B6" s="3">
         <v>44656</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="2">
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3">
         <v>44657</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="2">
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2"/>
+      <c r="B8" s="3">
         <v>44658</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="2">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3">
         <v>44659</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="2">
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3">
         <v>44660</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="2">
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3">
         <v>44661</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="2">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3">
         <v>44662</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="2">
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3">
         <v>44663</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="2">
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3">
         <v>44664</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="2">
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3">
         <v>44665</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="2">
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3">
         <v>44666</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="2">
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3">
         <v>44667</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="2">
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3">
         <v>44668</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="2">
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3">
         <v>44669</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="2">
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3">
         <v>44670</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="2">
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3">
         <v>44671</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="2">
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3">
         <v>44672</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="2">
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3">
         <v>44673</v>
       </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="2">
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3">
         <v>44674</v>
       </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="2">
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3">
         <v>44675</v>
       </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="2">
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3">
         <v>44676</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="2">
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3">
         <v>44677</v>
       </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="2">
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3">
         <v>44678</v>
       </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="2">
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3">
         <v>44679</v>
       </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="2">
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3">
         <v>44680</v>
       </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="2">
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3">
         <v>44681</v>
       </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="2"/>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="2"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A11"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/a-ledger.xlsx
+++ b/a-ledger.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
   <si>
     <t>日期</t>
   </si>
@@ -107,6 +107,24 @@
   <si>
     <t>1.学习FastAPI官方文档——完成“Advanced Security”至“Using Dataclasses”。
 2.《数据库系统基础教程》p18-p22:共计 5 页。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.  完成《watchlist-fastapi》p4。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.logging模块学习路线：
+（1）Logging HOWTO: https://docs.python.org/3/howto/logging.html
+（2）Logging Cook book: https://docs.python.org/3/howto/logging-cookbook.html
+</t>
+  </si>
+  <si>
+    <t>学习logging模块的一点心得：
+1.该知识点在实际项目中的应用。
+2.官方文档的每一句话背后蕴含着很多知识点，因此会产生“每个字都看认识，就是不知道在说什么。"
+解决方法：
+2.1. 自身：不要想着读完，而是读懂每一句话。比如代码numeric_level = getattr(logging, loglevel.upper(), None)中的loglevel来自于哪里？
+2.1.他人：需要一个“老师”随时解答。</t>
   </si>
 </sst>
 </file>
@@ -115,9 +133,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="m/d;@"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="20">
@@ -129,6 +147,113 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -137,24 +262,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -162,76 +271,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,27 +290,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -294,31 +312,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -330,145 +462,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -523,32 +541,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -573,163 +565,189 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -747,6 +765,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1087,232 +1108,232 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="8.8" style="6"/>
-    <col min="2" max="2" width="68.6" style="6" customWidth="1"/>
-    <col min="3" max="3" width="60.5" style="6" customWidth="1"/>
-    <col min="4" max="16384" width="8.8" style="6"/>
+    <col min="1" max="1" width="8.8" style="7"/>
+    <col min="2" max="2" width="68.6" style="7" customWidth="1"/>
+    <col min="3" max="3" width="60.5" style="7" customWidth="1"/>
+    <col min="4" max="16384" width="8.8" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="7">
+      <c r="A2" s="8">
         <v>44637</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="7">
+      <c r="A3" s="8">
         <v>44638</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="10" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8" t="s">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" ht="31.5" spans="1:3">
-      <c r="A5" s="7">
+      <c r="A5" s="8">
         <v>44639</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="10" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" ht="47.25" spans="1:3">
-      <c r="A6" s="7">
+      <c r="A6" s="8">
         <v>44640</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="10" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="7">
+      <c r="A7" s="8">
         <v>44641</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="10" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="7">
+      <c r="A8" s="8">
         <v>44642</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="10" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="7">
+      <c r="A9" s="8">
         <v>44643</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="10" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="7">
+      <c r="A10" s="8">
         <v>44644</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="10" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="7">
+      <c r="A11" s="8">
         <v>44645</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="10"/>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="7">
+      <c r="A12" s="8">
         <v>44646</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="10" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="13" ht="63" spans="1:4">
-      <c r="A13" s="7">
+      <c r="A13" s="8">
         <v>44647</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="7">
+      <c r="A14" s="8">
         <v>44648</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="9"/>
+      <c r="C14" s="10"/>
     </row>
     <row r="15" ht="47.25" spans="1:3">
-      <c r="A15" s="7">
+      <c r="A15" s="8">
         <v>44649</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="10" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="16" ht="31.5" spans="1:3">
-      <c r="A16" s="7">
+      <c r="A16" s="8">
         <v>44650</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="10" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="7">
+      <c r="A17" s="8">
         <v>44651</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="10" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="7"/>
+      <c r="A18" s="8"/>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="7"/>
+      <c r="A19" s="8"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="7"/>
+      <c r="A20" s="8"/>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="7"/>
+      <c r="A21" s="8"/>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="7"/>
+      <c r="A22" s="8"/>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="7"/>
+      <c r="A23" s="8"/>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="7"/>
+      <c r="A24" s="8"/>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="7"/>
+      <c r="A25" s="8"/>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="7"/>
+      <c r="A26" s="8"/>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="7"/>
+      <c r="A27" s="8"/>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="7"/>
+      <c r="A28" s="8"/>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="7"/>
+      <c r="A29" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1326,18 +1347,21 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="4.8" customWidth="1"/>
     <col min="2" max="2" width="8.7" customWidth="1"/>
     <col min="3" max="3" width="58.4" customWidth="1"/>
     <col min="4" max="4" width="44.5" customWidth="1"/>
+    <col min="5" max="5" width="61.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1399,13 +1423,20 @@
       </c>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" ht="126" spans="1:5">
       <c r="A6" s="2"/>
       <c r="B6" s="3">
         <v>44656</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
+      <c r="C6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2"/>

--- a/a-ledger.xlsx
+++ b/a-ledger.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
   <si>
     <t>日期</t>
   </si>
@@ -125,6 +125,9 @@
 解决方法：
 2.1. 自身：不要想着读完，而是读懂每一句话。比如代码numeric_level = getattr(logging, loglevel.upper(), None)中的loglevel来自于哪里？
 2.1.他人：需要一个“老师”随时解答。</t>
+  </si>
+  <si>
+    <t>1.《watchlist-fastapi》p5</t>
   </si>
 </sst>
 </file>
@@ -134,9 +137,9 @@
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="m/d;@"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -155,13 +158,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -170,6 +166,119 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -179,113 +288,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -312,144 +315,174 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -457,36 +490,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -539,15 +542,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -574,15 +568,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -597,138 +582,156 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -737,13 +740,13 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1352,7 +1355,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="4"/>
@@ -1443,7 +1446,9 @@
       <c r="B7" s="3">
         <v>44657</v>
       </c>
-      <c r="C7" s="5"/>
+      <c r="C7" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="D7" s="5"/>
     </row>
     <row r="8" spans="1:4">

--- a/a-ledger.xlsx
+++ b/a-ledger.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
   <si>
     <t>日期</t>
   </si>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t>1.《watchlist-fastapi》p5</t>
+  </si>
+  <si>
+    <t>tortoise orm contrib</t>
   </si>
 </sst>
 </file>
@@ -136,10 +139,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="m/d;@"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -147,6 +150,121 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -158,78 +276,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,58 +296,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -309,61 +312,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -375,13 +468,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -393,103 +486,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -500,21 +503,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -527,17 +515,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -557,13 +539,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -585,9 +571,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -600,153 +588,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1353,9 +1356,9 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="4"/>
@@ -1449,14 +1452,18 @@
       <c r="C7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2"/>
       <c r="B8" s="3">
         <v>44658</v>
       </c>
-      <c r="C8" s="5"/>
+      <c r="C8" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="D8" s="5"/>
     </row>
     <row r="9" spans="1:4">

--- a/a-ledger.xlsx
+++ b/a-ledger.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="35">
   <si>
     <t>日期</t>
   </si>
@@ -131,6 +131,12 @@
   </si>
   <si>
     <t>tortoise orm contrib</t>
+  </si>
+  <si>
+    <t>1.学习FastAPI官方文档——完成“Advanced Middleware”</t>
+  </si>
+  <si>
+    <t>ASGI</t>
   </si>
 </sst>
 </file>
@@ -139,10 +145,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="m/d;@"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -150,6 +156,75 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -162,23 +237,37 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -192,59 +281,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -253,24 +289,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -282,20 +302,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -312,187 +318,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -506,11 +512,56 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -539,32 +590,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -579,177 +609,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1356,9 +1362,9 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="4"/>
@@ -1471,8 +1477,12 @@
       <c r="B9" s="3">
         <v>44659</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
+      <c r="C9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2"/>

--- a/a-ledger.xlsx
+++ b/a-ledger.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="36">
   <si>
     <t>日期</t>
   </si>
@@ -138,22 +138,64 @@
   <si>
     <t>ASGI</t>
   </si>
+  <si>
+    <t>1.完成《watchlist-fastapi》p5</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="m/d;@"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="m/d;@"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -168,18 +210,47 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -192,17 +263,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -215,89 +300,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -318,13 +321,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -336,169 +357,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -509,21 +512,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -551,26 +539,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -590,6 +580,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -601,11 +606,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -614,148 +617,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -769,7 +772,7 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -784,7 +787,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1362,9 +1365,9 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="4"/>
@@ -1489,7 +1492,9 @@
       <c r="B10" s="3">
         <v>44660</v>
       </c>
-      <c r="C10" s="5"/>
+      <c r="C10" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="D10" s="5"/>
     </row>
     <row r="11" spans="1:4">

--- a/a-ledger.xlsx
+++ b/a-ledger.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="38">
   <si>
     <t>日期</t>
   </si>
@@ -141,17 +141,23 @@
   <si>
     <t>1.完成《watchlist-fastapi》p5</t>
   </si>
+  <si>
+    <t>1.学习《watchlist-fastapi》p6</t>
+  </si>
+  <si>
+    <t>422 Unprocessable Entity</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="m/d;@"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="m/d;@"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -159,6 +165,134 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -170,127 +304,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -298,13 +311,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -321,25 +327,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -351,157 +459,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -512,41 +518,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -561,6 +532,39 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -580,17 +584,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -604,11 +604,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -617,148 +623,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -772,7 +778,7 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -787,7 +793,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1367,7 +1373,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="4"/>
@@ -1526,8 +1532,12 @@
       <c r="B14" s="3">
         <v>44664</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
+      <c r="C14" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3"/>

--- a/a-ledger.xlsx
+++ b/a-ledger.xlsx
@@ -145,7 +145,7 @@
     <t>1.学习《watchlist-fastapi》p6</t>
   </si>
   <si>
-    <t>422 Unprocessable Entity</t>
+    <t>422 Unprocessable Entity:把Movie_Pydantic 类写到与Movie 模型同一个目录了。</t>
   </si>
 </sst>
 </file>
@@ -154,10 +154,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="m/d;@"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -177,7 +177,83 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -191,46 +267,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -243,74 +311,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -327,19 +327,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -351,157 +417,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -521,16 +521,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -541,15 +550,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -584,13 +584,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -604,17 +608,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -623,142 +623,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1371,9 +1371,9 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="4"/>

--- a/a-ledger.xlsx
+++ b/a-ledger.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
   <si>
     <t>日期</t>
   </si>
@@ -146,6 +146,11 @@
   </si>
   <si>
     <t>422 Unprocessable Entity:把Movie_Pydantic 类写到与Movie 模型同一个目录了。</t>
+  </si>
+  <si>
+    <t>1. 6.12 Assignment expressions/walrus :=
+2. get()和filter()的区别。
+3.tortoise orm分页：</t>
   </si>
 </sst>
 </file>
@@ -156,8 +161,8 @@
     <numFmt numFmtId="176" formatCode="m/d;@"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -177,7 +182,128 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,127 +316,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -327,181 +332,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -518,39 +523,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -569,6 +541,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -580,6 +572,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -608,13 +609,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -623,142 +628,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1373,7 +1378,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="4"/>
@@ -1539,13 +1544,17 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" ht="47.25" spans="1:4">
       <c r="A15" s="3"/>
       <c r="B15" s="3">
         <v>44665</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
+      <c r="C15" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3"/>

--- a/a-ledger.xlsx
+++ b/a-ledger.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
   <si>
     <t>日期</t>
   </si>
@@ -152,16 +152,20 @@
 2. get()和filter()的区别。
 3.tortoise orm分页：</t>
   </si>
+  <si>
+    <t>1.JWT: https://jwt.io/
+2.python-jose: https://github.com/mpdavis/python-jose</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="m/d;@"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="m/d;@"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="20">
@@ -182,7 +186,62 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,36 +255,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -234,16 +263,36 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,21 +300,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -278,44 +320,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -332,187 +336,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -523,6 +527,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -543,20 +565,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -576,11 +598,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -599,171 +627,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -783,7 +787,7 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -798,7 +802,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1378,7 +1382,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="4"/>
@@ -1556,13 +1560,17 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" ht="31.5" spans="1:4">
       <c r="A16" s="3"/>
       <c r="B16" s="3">
         <v>44666</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
+      <c r="C16" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3"/>

--- a/a-ledger.xlsx
+++ b/a-ledger.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="42">
   <si>
     <t>日期</t>
   </si>
@@ -156,17 +156,23 @@
     <t>1.JWT: https://jwt.io/
 2.python-jose: https://github.com/mpdavis/python-jose</t>
   </si>
+  <si>
+    <t>1.完成《watchlist-fastapi》p6</t>
+  </si>
+  <si>
+    <t>1.passlib</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="m/d;@"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="m/d;@"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -174,6 +180,135 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -186,136 +321,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -336,25 +342,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -366,61 +498,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,91 +510,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -527,6 +533,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -539,26 +560,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -584,6 +596,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -597,183 +633,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -787,7 +793,7 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -802,7 +808,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1382,7 +1388,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="4"/>
@@ -1577,8 +1583,12 @@
       <c r="B17" s="3">
         <v>44667</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
+      <c r="C17" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3"/>

--- a/a-ledger.xlsx
+++ b/a-ledger.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="44">
   <si>
     <t>日期</t>
   </si>
@@ -162,17 +162,25 @@
   <si>
     <t>1.passlib</t>
   </si>
+  <si>
+    <t>1.完成《watchlist-fastapi》p7,p10</t>
+  </si>
+  <si>
+    <t>1.Vite/vue cli：使用vite创建项目。
+2.yarn/npm：推荐使用yarn
+3.element-plus安装自动提示插件：</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="m/d;@"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="m/d;@"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -183,22 +191,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,6 +207,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -221,9 +223,32 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -237,7 +262,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,15 +299,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -281,47 +321,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -342,187 +350,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -561,41 +569,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -606,15 +579,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -633,153 +597,197 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -793,7 +801,7 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -808,7 +816,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1386,9 +1394,9 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="4"/>
@@ -1590,13 +1598,17 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" ht="47.25" spans="1:4">
       <c r="A18" s="3"/>
       <c r="B18" s="3">
         <v>44668</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
+      <c r="C18" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3"/>

--- a/a-ledger.xlsx
+++ b/a-ledger.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="47">
   <si>
     <t>日期</t>
   </si>
@@ -170,17 +170,26 @@
 2.yarn/npm：推荐使用yarn
 3.element-plus安装自动提示插件：</t>
   </si>
+  <si>
+    <t>使用pyjwt实现授权认证</t>
+  </si>
+  <si>
+    <t>refresh_token</t>
+  </si>
+  <si>
+    <t>1.学习《watchlist-fastapi》p8</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="m/d;@"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="m/d;@"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -188,6 +197,113 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -199,9 +315,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,82 +324,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -298,42 +337,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -350,187 +359,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -541,6 +550,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -559,15 +592,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -579,6 +603,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -600,32 +633,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -635,9 +642,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -646,148 +655,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -801,7 +810,7 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -816,7 +825,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1394,9 +1403,9 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="4"/>
@@ -1615,15 +1624,21 @@
       <c r="B19" s="3">
         <v>44669</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
+      <c r="C19" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3"/>
       <c r="B20" s="3">
         <v>44670</v>
       </c>
-      <c r="C20" s="5"/>
+      <c r="C20" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="D20" s="5"/>
     </row>
     <row r="21" spans="1:4">
@@ -1631,7 +1646,9 @@
       <c r="B21" s="3">
         <v>44671</v>
       </c>
-      <c r="C21" s="5"/>
+      <c r="C21" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="D21" s="5"/>
     </row>
     <row r="22" spans="1:4">
@@ -1639,7 +1656,9 @@
       <c r="B22" s="3">
         <v>44672</v>
       </c>
-      <c r="C22" s="5"/>
+      <c r="C22" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="D22" s="5"/>
     </row>
     <row r="23" spans="1:4">
@@ -1647,7 +1666,9 @@
       <c r="B23" s="3">
         <v>44673</v>
       </c>
-      <c r="C23" s="5"/>
+      <c r="C23" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="D23" s="5"/>
     </row>
     <row r="24" spans="1:4">

--- a/a-ledger.xlsx
+++ b/a-ledger.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="51">
   <si>
     <t>日期</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>周</t>
+  </si>
+  <si>
+    <t>16</t>
   </si>
   <si>
     <t>1.学习FastAPI官方文档——完成“Custom Response - HTML, Stream, File, others”至“Advanced Dependencies”。
@@ -119,14 +122,6 @@
 </t>
   </si>
   <si>
-    <t>学习logging模块的一点心得：
-1.该知识点在实际项目中的应用。
-2.官方文档的每一句话背后蕴含着很多知识点，因此会产生“每个字都看认识，就是不知道在说什么。"
-解决方法：
-2.1. 自身：不要想着读完，而是读懂每一句话。比如代码numeric_level = getattr(logging, loglevel.upper(), None)中的loglevel来自于哪里？
-2.1.他人：需要一个“老师”随时解答。</t>
-  </si>
-  <si>
     <t>1.《watchlist-fastapi》p5</t>
   </si>
   <si>
@@ -178,6 +173,32 @@
   </si>
   <si>
     <t>1.学习《watchlist-fastapi》p8</t>
+  </si>
+  <si>
+    <t>pyjwt实现授权认证review</t>
+  </si>
+  <si>
+    <t>refresh_token存在的意义：re</t>
+  </si>
+  <si>
+    <t>1.完成《watchlist-fastapi》p8
+1.学习《watchlist-fastapi》p9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Restful API中的Response格式：
+{
+  "code": 200,
+  "data": {
+    "token": "bearer + eyJ"
+  },
+  "msg": "请求成功",
+  "access_token": "eyJ",
+  "token_type": "bearer"
+}
+2.测试
+2.1测试库用哪个？：（1）同步——pytest，（2）异步——使用pytest-asyncio+pytest或者asynctest+pytest。参考：https://docs.pytest.org/en/7.1.x/reference/plugin_list.html
+2.2测试目录放在哪里？：放在项目根目录下。
+</t>
   </si>
 </sst>
 </file>
@@ -185,18 +206,49 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="m/d;@"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="m/d;@"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -208,6 +260,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -216,8 +290,76 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,121 +372,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -353,193 +382,217 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -550,30 +603,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -592,6 +621,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -603,15 +650,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -633,15 +671,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -650,167 +679,191 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -819,13 +872,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1161,232 +1223,232 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="8.8" style="7"/>
-    <col min="2" max="2" width="68.6" style="7" customWidth="1"/>
-    <col min="3" max="3" width="60.5" style="7" customWidth="1"/>
-    <col min="4" max="16384" width="8.8" style="7"/>
+    <col min="1" max="1" width="8.8" style="10"/>
+    <col min="2" max="2" width="68.6" style="10" customWidth="1"/>
+    <col min="3" max="3" width="60.5" style="10" customWidth="1"/>
+    <col min="4" max="16384" width="8.8" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="8">
+      <c r="A2" s="11">
         <v>44637</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="13" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="8">
+      <c r="A3" s="11">
         <v>44638</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="13" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="8"/>
-      <c r="B4" s="9" t="s">
+      <c r="A4" s="11"/>
+      <c r="B4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="10" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" ht="31.5" spans="1:3">
-      <c r="A5" s="8">
+      <c r="A5" s="11">
         <v>44639</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="13" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" ht="47.25" spans="1:3">
-      <c r="A6" s="8">
+      <c r="A6" s="11">
         <v>44640</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="13" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="8">
+      <c r="A7" s="11">
         <v>44641</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="13" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="8">
+      <c r="A8" s="11">
         <v>44642</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="13" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="8">
+      <c r="A9" s="11">
         <v>44643</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="13" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="8">
+      <c r="A10" s="11">
         <v>44644</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="13" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="8">
+      <c r="A11" s="11">
         <v>44645</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="10"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="13"/>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="8">
+      <c r="A12" s="11">
         <v>44646</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="13" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="13" ht="63" spans="1:4">
-      <c r="A13" s="8">
+      <c r="A13" s="11">
         <v>44647</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="10" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="8">
+      <c r="A14" s="11">
         <v>44648</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="10"/>
+      <c r="C14" s="13"/>
     </row>
     <row r="15" ht="47.25" spans="1:3">
-      <c r="A15" s="8">
+      <c r="A15" s="11">
         <v>44649</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="13" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="16" ht="31.5" spans="1:3">
-      <c r="A16" s="8">
+      <c r="A16" s="11">
         <v>44650</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="13" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="8">
+      <c r="A17" s="11">
         <v>44651</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="8"/>
+      <c r="A18" s="11"/>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="8"/>
+      <c r="A19" s="11"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="8"/>
+      <c r="A20" s="11"/>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="8"/>
+      <c r="A21" s="11"/>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="8"/>
+      <c r="A22" s="11"/>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="8"/>
+      <c r="A23" s="11"/>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="8"/>
+      <c r="A24" s="11"/>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="8"/>
+      <c r="A25" s="11"/>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="8"/>
+      <c r="A26" s="11"/>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="8"/>
+      <c r="A27" s="11"/>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="8"/>
+      <c r="A28" s="11"/>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="8"/>
+      <c r="A29" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1403,9 +1465,9 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
+      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="4"/>
@@ -1431,9 +1493,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="2">
-        <v>15</v>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="B2" s="3">
         <v>44652</v>
@@ -1441,17 +1503,23 @@
       <c r="C2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" ht="47.25" spans="1:4">
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" ht="47.25" spans="1:5">
       <c r="A3" s="2"/>
       <c r="B3" s="3">
         <v>44653</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="4" ht="31.5" spans="1:4">
@@ -1460,10 +1528,10 @@
         <v>44654</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" ht="31.5" spans="1:4">
@@ -1472,23 +1540,23 @@
         <v>44655</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" ht="126" spans="1:5">
+    <row r="6" ht="24" customHeight="1" spans="1:5">
       <c r="A6" s="2"/>
       <c r="B6" s="3">
         <v>44656</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="6" t="s">
         <v>30</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1544,7 +1612,9 @@
       <c r="D11" s="5"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="3"/>
+      <c r="A12" s="6">
+        <v>17</v>
+      </c>
       <c r="B12" s="3">
         <v>44662</v>
       </c>
@@ -1552,15 +1622,15 @@
       <c r="D12" s="5"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="3"/>
+      <c r="A13" s="6"/>
       <c r="B13" s="3">
         <v>44663</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="3"/>
+    <row r="14" spans="1:5">
+      <c r="A14" s="6"/>
       <c r="B14" s="3">
         <v>44664</v>
       </c>
@@ -1570,9 +1640,12 @@
       <c r="D14" s="5" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="15" ht="47.25" spans="1:4">
-      <c r="A15" s="3"/>
+      <c r="E14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" ht="19" customHeight="1" spans="1:4">
+      <c r="A15" s="6"/>
       <c r="B15" s="3">
         <v>44665</v>
       </c>
@@ -1584,7 +1657,7 @@
       </c>
     </row>
     <row r="16" ht="31.5" spans="1:4">
-      <c r="A16" s="3"/>
+      <c r="A16" s="6"/>
       <c r="B16" s="3">
         <v>44666</v>
       </c>
@@ -1596,7 +1669,7 @@
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="3"/>
+      <c r="A17" s="6"/>
       <c r="B17" s="3">
         <v>44667</v>
       </c>
@@ -1607,8 +1680,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" ht="47.25" spans="1:4">
-      <c r="A18" s="3"/>
+    <row r="18" ht="24" customHeight="1" spans="1:4">
+      <c r="A18" s="6"/>
       <c r="B18" s="3">
         <v>44668</v>
       </c>
@@ -1620,7 +1693,9 @@
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="3"/>
+      <c r="A19" s="7">
+        <v>18</v>
+      </c>
       <c r="B19" s="3">
         <v>44669</v>
       </c>
@@ -1632,7 +1707,7 @@
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="3"/>
+      <c r="A20" s="7"/>
       <c r="B20" s="3">
         <v>44670</v>
       </c>
@@ -1642,7 +1717,7 @@
       <c r="D20" s="5"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="3"/>
+      <c r="A21" s="7"/>
       <c r="B21" s="3">
         <v>44671</v>
       </c>
@@ -1652,7 +1727,7 @@
       <c r="D21" s="5"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="3"/>
+      <c r="A22" s="7"/>
       <c r="B22" s="3">
         <v>44672</v>
       </c>
@@ -1662,7 +1737,7 @@
       <c r="D22" s="5"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="3"/>
+      <c r="A23" s="7"/>
       <c r="B23" s="3">
         <v>44673</v>
       </c>
@@ -1672,23 +1747,33 @@
       <c r="D23" s="5"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="3"/>
+      <c r="A24" s="7"/>
       <c r="B24" s="3">
         <v>44674</v>
       </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="3"/>
+      <c r="C24" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" ht="27" customHeight="1" spans="1:4">
+      <c r="A25" s="7"/>
       <c r="B25" s="3">
         <v>44675</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
+      <c r="C25" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="3"/>
+      <c r="A26" s="8">
+        <v>19</v>
+      </c>
       <c r="B26" s="3">
         <v>44676</v>
       </c>
@@ -1696,7 +1781,7 @@
       <c r="D26" s="5"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="3"/>
+      <c r="A27" s="8"/>
       <c r="B27" s="3">
         <v>44677</v>
       </c>
@@ -1704,7 +1789,7 @@
       <c r="D27" s="5"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="3"/>
+      <c r="A28" s="8"/>
       <c r="B28" s="3">
         <v>44678</v>
       </c>
@@ -1712,7 +1797,7 @@
       <c r="D28" s="5"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="3"/>
+      <c r="A29" s="8"/>
       <c r="B29" s="3">
         <v>44679</v>
       </c>
@@ -1720,7 +1805,7 @@
       <c r="D29" s="5"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="3"/>
+      <c r="A30" s="8"/>
       <c r="B30" s="3">
         <v>44680</v>
       </c>
@@ -1728,7 +1813,7 @@
       <c r="D30" s="5"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="3"/>
+      <c r="A31" s="8"/>
       <c r="B31" s="3">
         <v>44681</v>
       </c>
@@ -1744,8 +1829,11 @@
       <c r="B33" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
     <mergeCell ref="A2:A11"/>
+    <mergeCell ref="A12:A18"/>
+    <mergeCell ref="A19:A25"/>
+    <mergeCell ref="A26:A31"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/a-ledger.xlsx
+++ b/a-ledger.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="52">
   <si>
     <t>日期</t>
   </si>
@@ -200,6 +200,9 @@
 2.2测试目录放在哪里？：放在项目根目录下。
 </t>
   </si>
+  <si>
+    <t>1.学习《watchlist-fastapi》p9</t>
+  </si>
 </sst>
 </file>
 
@@ -207,10 +210,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="m/d;@"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="m/d;@"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -245,13 +248,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -260,6 +256,104 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -269,69 +363,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -343,35 +375,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="38">
     <fill>
@@ -418,181 +421,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -626,15 +629,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -680,15 +674,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -703,147 +688,165 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -863,7 +866,7 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -887,7 +890,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1467,7 +1470,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
+      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="4"/>
@@ -1777,7 +1780,9 @@
       <c r="B26" s="3">
         <v>44676</v>
       </c>
-      <c r="C26" s="5"/>
+      <c r="C26" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="D26" s="5"/>
     </row>
     <row r="27" spans="1:4">

--- a/a-ledger.xlsx
+++ b/a-ledger.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="54">
   <si>
     <t>日期</t>
   </si>
@@ -203,17 +203,23 @@
   <si>
     <t>1.学习《watchlist-fastapi》p9</t>
   </si>
+  <si>
+    <t xml:space="preserve">1.学习《watchlist-fastapi》p9，p11 </t>
+  </si>
+  <si>
+    <t>1.重叠样式库：Normalize.css(https://necolas.github.io/normalize.css/)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="m/d;@"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="m/d;@"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -232,6 +238,82 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -240,6 +322,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -249,54 +338,39 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -307,74 +381,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="38">
     <fill>
@@ -415,25 +421,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,31 +529,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -481,73 +577,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -560,36 +596,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -606,6 +612,69 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -627,38 +696,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -673,186 +712,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -866,7 +872,7 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -890,7 +896,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1470,7 +1476,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
+      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="4"/>
@@ -1785,13 +1791,20 @@
       </c>
       <c r="D26" s="5"/>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:5">
       <c r="A27" s="8"/>
       <c r="B27" s="3">
         <v>44677</v>
       </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
+      <c r="C27" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E27" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="8"/>
